--- a/results/all_resualts_colors.xlsx
+++ b/results/all_resualts_colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerh\PycharmProjects\Thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A342FC-C93D-4A31-A67D-4067C305F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6544EBF-723E-490B-9F13-EC53ECE3D6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="390" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/all_resualts_colors.xlsx
+++ b/results/all_resualts_colors.xlsx
@@ -1,81 +1,774 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerh\PycharmProjects\Thesis\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6544EBF-723E-490B-9F13-EC53ECE3D6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>all_features</t>
-  </si>
-  <si>
-    <t>random_features</t>
-  </si>
-  <si>
-    <t>fisher</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>chi_square</t>
-  </si>
-  <si>
-    <t>kmeans_0.0</t>
-  </si>
-  <si>
-    <t>kmeans_0.2</t>
-  </si>
-  <si>
-    <t>kmeans_0.35</t>
-  </si>
-  <si>
-    <t>kmeans_0.5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00F1F1F1"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="148">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006837"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BBF64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0057B65F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE593"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F6A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093D168"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCA55D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A50026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFEBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EC87"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFBB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67F4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF7A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C7F43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0036A657"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0082C966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ECF67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFAB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED27F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EA5739"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F46D43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF6B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFF293"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBF6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E34933"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BB05C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3F399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEDA86"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC776"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F9AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5ED88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00118848"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B30D26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B50F26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C62027"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E95538"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDFEBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070C164"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF7A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D62F27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB567"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BE1827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCA85E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDAF62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB163"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EE613E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEFA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE08B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D368"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2FAAE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00199750"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7E075"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9DA6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E77F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E24731"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B10B26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC2627"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EB5A3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED683"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FCB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECE7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEB9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9E881"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FA9857"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBE982"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BD63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001B9950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000E8245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AB760"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCF08F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EF8B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FAA59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E44C34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E75337"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AD0826"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E65036"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBA35C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFEB85"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEF8A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5E67E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F59F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075C465"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0017934E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0096D268"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE2827"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DE402E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEDA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBD6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFF8AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5DF74"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084CA66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004EB15D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC064"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2F397"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABDB6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E14430"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDD70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCB4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002AA054"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003CA959"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000F8446"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF1A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B71126"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7844E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDEA83"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FB9D59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEC877"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEFFBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67A49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069BE63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F295"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007AC665"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00026C39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99153"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC3B2C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECC7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEC9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BD1726"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FAB0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1EC86"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00219C52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBB6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D42D27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C82227"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDAD60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEDC88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF8B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBFDBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B91326"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBE278"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000B7D42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009DD569"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002DA155"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054B45F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE379"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E54E35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EF633F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC372"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -87,43 +780,239 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="148">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="138" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="127" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="134" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="139" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="140" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="141" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="129" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="144" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="131" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="146" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="124" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="147" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="125" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="135" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="126" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="136" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="137" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,46 +1300,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>all_features</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>random_features</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fisher</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>relief</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>chi_square</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.35</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.1 2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.2339999999999999</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0.1909999999999999</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.2 2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="F3" s="13" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="G3" s="14" t="n">
+        <v>0.2729999999999999</v>
+      </c>
+      <c r="H3" s="14" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="I3" s="15" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.3 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>0.2789999999999999</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>0.2809999999999999</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="I4" s="23" t="n">
+        <v>0.2649999999999999</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0.2609999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.4 2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C5" s="24" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="D5" s="25" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="E5" s="26" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>0.2719999999999999</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="J5" s="29" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.5 2</t>
+        </is>
+      </c>
+      <c r="B6" s="30" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="31" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.2979999999999999</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="H6" s="33" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="J6" s="34" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.6 2</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C7" s="35" t="n">
+        <v>0.2799999999999999</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0.2779999999999999</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="F7" s="35" t="n">
+        <v>0.2799999999999999</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H7" s="36" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="I7" s="37" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="J7" s="34" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.7 2</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0.2719999999999999</v>
+      </c>
+      <c r="D8" s="38" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="E8" s="39" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="F8" s="40" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="G8" s="37" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="H8" s="35" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I8" s="34" t="inlineStr"/>
+      <c r="J8" s="34" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.8 2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="D9" s="41" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="E9" s="42" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="F9" s="41" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="G9" s="43" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="H9" s="34" t="inlineStr"/>
+      <c r="I9" s="34" t="inlineStr"/>
+      <c r="J9" s="34" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>adware_balanced 0.9 2</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C10" s="44" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="D10" s="45" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.2799999999999999</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0.2799999999999999</v>
+      </c>
+      <c r="G10" s="44" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="H10" s="34" t="inlineStr"/>
+      <c r="I10" s="34" t="inlineStr"/>
+      <c r="J10" s="34" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.1 2</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C11" s="46" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="D11" s="40" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E11" s="40" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="G11" s="26" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="H11" s="38" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I11" s="47" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.2 2</t>
+        </is>
+      </c>
+      <c r="B12" s="48" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="D12" s="48" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E12" s="49" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F12" s="50" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="H12" s="51" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="I12" s="48" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J12" s="52" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.3 2</t>
+        </is>
+      </c>
+      <c r="B13" s="53" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C13" s="54" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="F13" s="55" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="H13" s="53" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I13" s="54" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="J13" s="56" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.4 2</t>
+        </is>
+      </c>
+      <c r="B14" s="57" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C14" s="57" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D14" s="58" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G14" s="57" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H14" s="59" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="I14" s="60" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="J14" s="59" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.5 2</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C15" s="62" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="D15" s="36" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G15" s="63" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="H15" s="62" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="I15" s="64" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="J15" s="34" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.6 2</t>
+        </is>
+      </c>
+      <c r="B16" s="40" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C16" s="37" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="D16" s="37" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0.9840000000000002</v>
+      </c>
+      <c r="G16" s="65" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="I16" s="66" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="J16" s="34" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.7 2</t>
+        </is>
+      </c>
+      <c r="B17" s="51" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="D17" s="48" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="F17" s="67" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="G17" s="48" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="H17" s="68" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="I17" s="34" t="inlineStr"/>
+      <c r="J17" s="34" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.8 2</t>
+        </is>
+      </c>
+      <c r="B18" s="54" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C18" s="69" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G18" s="55" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="H18" s="34" t="inlineStr"/>
+      <c r="I18" s="34" t="inlineStr"/>
+      <c r="J18" s="34" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>digits 0.9 2</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D19" s="44" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="E19" s="25" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G19" s="44" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="H19" s="34" t="inlineStr"/>
+      <c r="I19" s="34" t="inlineStr"/>
+      <c r="J19" s="34" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.1 2</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C20" s="70" t="n">
+        <v>0.7910000000000001</v>
+      </c>
+      <c r="D20" s="71" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0.4109999999999999</v>
+      </c>
+      <c r="F20" s="72" t="n">
+        <v>0.7030000000000001</v>
+      </c>
+      <c r="G20" s="73" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="H20" s="74" t="n">
+        <v>0.8009999999999999</v>
+      </c>
+      <c r="I20" s="22" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="J20" s="75" t="n">
+        <v>0.8089999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.2 2</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C21" s="55" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="D21" s="31" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>0.7710000000000001</v>
+      </c>
+      <c r="F21" s="76" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G21" s="77" t="n">
+        <v>0.8210000000000001</v>
+      </c>
+      <c r="H21" s="78" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="I21" s="79" t="n">
+        <v>0.8320000000000001</v>
+      </c>
+      <c r="J21" s="80" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.3 2</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C22" s="39" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="E22" s="32" t="n">
+        <v>0.8579999999999999</v>
+      </c>
+      <c r="F22" s="81" t="n">
+        <v>0.8559999999999999</v>
+      </c>
+      <c r="G22" s="82" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="H22" s="83" t="n">
+        <v>0.8550000000000001</v>
+      </c>
+      <c r="I22" s="71" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="J22" s="84" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.4 2</t>
+        </is>
+      </c>
+      <c r="B23" s="85" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C23" s="13" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.8470000000000001</v>
+      </c>
+      <c r="E23" s="86" t="n">
+        <v>0.8709999999999999</v>
+      </c>
+      <c r="F23" s="87" t="n">
+        <v>0.8690000000000001</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0.8870000000000001</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="I23" s="63" t="n">
+        <v>0.8770000000000001</v>
+      </c>
+      <c r="J23" s="86" t="n">
+        <v>0.8710000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.5 2</t>
+        </is>
+      </c>
+      <c r="B24" s="88" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C24" s="89" t="n">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="F24" s="90" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="G24" s="74" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="H24" s="79" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="I24" s="91" t="n">
+        <v>0.8760000000000001</v>
+      </c>
+      <c r="J24" s="34" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.6 2</t>
+        </is>
+      </c>
+      <c r="B25" s="27" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C25" s="92" t="n">
+        <v>0.8710000000000001</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="E25" s="93" t="n">
+        <v>0.8790000000000001</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="G25" s="94" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="H25" s="51" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I25" s="27" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="J25" s="34" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.7 2</t>
+        </is>
+      </c>
+      <c r="B26" s="95" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>0.8620000000000001</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.8619999999999999</v>
+      </c>
+      <c r="E26" s="49" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F26" s="68" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="H26" s="96" t="n">
+        <v>0.8720000000000001</v>
+      </c>
+      <c r="I26" s="34" t="inlineStr"/>
+      <c r="J26" s="34" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.8 2</t>
+        </is>
+      </c>
+      <c r="B27" s="97" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C27" s="98" t="n">
+        <v>0.8780000000000001</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="F27" s="99" t="n">
+        <v>0.8720000000000001</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="H27" s="34" t="inlineStr"/>
+      <c r="I27" s="34" t="inlineStr"/>
+      <c r="J27" s="34" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>isolet 0.9 2</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0.8780000000000001</v>
+      </c>
+      <c r="D28" s="79" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="E28" s="51" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F28" s="67" t="n">
+        <v>0.8710000000000001</v>
+      </c>
+      <c r="G28" s="96" t="n">
+        <v>0.8720000000000001</v>
+      </c>
+      <c r="H28" s="34" t="inlineStr"/>
+      <c r="I28" s="34" t="inlineStr"/>
+      <c r="J28" s="34" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.1 2</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C29" s="100" t="n">
+        <v>0.2061859296482412</v>
+      </c>
+      <c r="D29" s="101" t="n">
+        <v>0.2211959798994975</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>0.1961708542713567</v>
+      </c>
+      <c r="F29" s="102" t="n">
+        <v>0.2152261306532663</v>
+      </c>
+      <c r="G29" s="103" t="n">
+        <v>0.2102110552763819</v>
+      </c>
+      <c r="H29" s="103" t="n">
+        <v>0.2102110552763819</v>
+      </c>
+      <c r="I29" s="104" t="n">
+        <v>0.2052311557788944</v>
+      </c>
+      <c r="J29" s="105" t="n">
+        <v>0.2312361809045226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.2 2</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C30" s="106" t="n">
+        <v>0.2712613065326633</v>
+      </c>
+      <c r="D30" s="107" t="n">
+        <v>0.2903366834170854</v>
+      </c>
+      <c r="E30" s="108" t="n">
+        <v>0.3042663316582915</v>
+      </c>
+      <c r="F30" s="109" t="n">
+        <v>0.2862964824120603</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0.2612613065326633</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>0.2612613065326633</v>
+      </c>
+      <c r="I30" s="35" t="n">
+        <v>0.3103115577889447</v>
+      </c>
+      <c r="J30" s="110" t="n">
+        <v>0.306251256281407</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.3 2</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C31" s="101" t="n">
+        <v>0.3313015075376884</v>
+      </c>
+      <c r="D31" s="35" t="n">
+        <v>0.3543969849246231</v>
+      </c>
+      <c r="E31" s="111" t="n">
+        <v>0.3533517587939698</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0.3143165829145728</v>
+      </c>
+      <c r="G31" s="43" t="n">
+        <v>0.3473417085427135</v>
+      </c>
+      <c r="H31" s="112" t="n">
+        <v>0.3763567839195979</v>
+      </c>
+      <c r="I31" s="113" t="n">
+        <v>0.3943366834170854</v>
+      </c>
+      <c r="J31" s="114" t="n">
+        <v>0.3593819095477387</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.4 2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C32" s="115" t="n">
+        <v>0.4204472361809045</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.3934170854271356</v>
+      </c>
+      <c r="E32" s="116" t="n">
+        <v>0.3963768844221105</v>
+      </c>
+      <c r="F32" s="117" t="n">
+        <v>0.4144422110552764</v>
+      </c>
+      <c r="G32" s="118" t="n">
+        <v>0.4323969849246231</v>
+      </c>
+      <c r="H32" s="119" t="n">
+        <v>0.4134070351758794</v>
+      </c>
+      <c r="I32" s="105" t="n">
+        <v>0.4093969849246231</v>
+      </c>
+      <c r="J32" s="110" t="n">
+        <v>0.4184522613065327</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.5 2</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C33" s="120" t="n">
+        <v>0.4945125628140703</v>
+      </c>
+      <c r="D33" s="23" t="n">
+        <v>0.4464723618090452</v>
+      </c>
+      <c r="E33" s="121" t="n">
+        <v>0.4484422110552764</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.4284572864321608</v>
+      </c>
+      <c r="G33" s="122" t="n">
+        <v>0.5094924623115578</v>
+      </c>
+      <c r="H33" s="123" t="n">
+        <v>0.4714371859296483</v>
+      </c>
+      <c r="I33" s="123" t="n">
+        <v>0.471427135678392</v>
+      </c>
+      <c r="J33" s="34" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.6 2</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>0.4734371859296482</v>
+      </c>
+      <c r="D34" s="104" t="n">
+        <v>0.4754824120603015</v>
+      </c>
+      <c r="E34" s="124" t="n">
+        <v>0.4974824120603014</v>
+      </c>
+      <c r="F34" s="104" t="n">
+        <v>0.4754874371859296</v>
+      </c>
+      <c r="G34" s="86" t="n">
+        <v>0.5245025125628141</v>
+      </c>
+      <c r="H34" s="125" t="n">
+        <v>0.5095025125628141</v>
+      </c>
+      <c r="I34" s="126" t="n">
+        <v>0.4794673366834171</v>
+      </c>
+      <c r="J34" s="34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.7 2</t>
+        </is>
+      </c>
+      <c r="B35" s="90" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C35" s="127" t="n">
+        <v>0.5485427135678391</v>
+      </c>
+      <c r="D35" s="107" t="n">
+        <v>0.5074924623115578</v>
+      </c>
+      <c r="E35" s="44" t="n">
+        <v>0.5135125628140704</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.5015125628140703</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0.5615628140703517</v>
+      </c>
+      <c r="H35" s="25" t="n">
+        <v>0.5255226130653267</v>
+      </c>
+      <c r="I35" s="34" t="inlineStr"/>
+      <c r="J35" s="34" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.8 2</t>
+        </is>
+      </c>
+      <c r="B36" s="128" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C36" s="87" t="n">
+        <v>0.5425427135678392</v>
+      </c>
+      <c r="D36" s="129" t="n">
+        <v>0.5185175879396986</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>0.5145125628140704</v>
+      </c>
+      <c r="F36" s="24" t="n">
+        <v>0.5335175879396985</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0.5655628140703518</v>
+      </c>
+      <c r="H36" s="34" t="inlineStr"/>
+      <c r="I36" s="34" t="inlineStr"/>
+      <c r="J36" s="34" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ml_multiclass_classification_data 0.9 2</t>
+        </is>
+      </c>
+      <c r="B37" s="83" t="n">
+        <v>0.558572864321608</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>0.524537688442211</v>
+      </c>
+      <c r="D37" s="98" t="n">
+        <v>0.5665477386934674</v>
+      </c>
+      <c r="E37" s="86" t="n">
+        <v>0.5515477386934673</v>
+      </c>
+      <c r="F37" s="65" t="n">
+        <v>0.5445477386934673</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>0.5695477386934673</v>
+      </c>
+      <c r="H37" s="34" t="inlineStr"/>
+      <c r="I37" s="34" t="inlineStr"/>
+      <c r="J37" s="34" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.1 2</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C38" s="130" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="D38" s="131" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="F38" s="123" t="n">
+        <v>0.3869999999999999</v>
+      </c>
+      <c r="G38" s="132" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="H38" s="54" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I38" s="112" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="J38" s="133" t="n">
+        <v>0.3929999999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.2 2</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C39" s="107" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D39" s="134" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="F39" s="28" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="G39" s="115" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="H39" s="115" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="I39" s="16" t="n">
+        <v>0.4669999999999999</v>
+      </c>
+      <c r="J39" s="58" t="n">
+        <v>0.4939999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.3 2</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C40" s="135" t="n">
+        <v>0.5119999999999999</v>
+      </c>
+      <c r="D40" s="13" t="n">
+        <v>0.5210000000000001</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="F40" s="55" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G40" s="136" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="H40" s="137" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="I40" s="138" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0.5429999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.4 2</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C41" s="102" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="D41" s="139" t="n">
+        <v>0.5889999999999999</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="F41" s="140" t="n">
+        <v>0.6210000000000001</v>
+      </c>
+      <c r="G41" s="141" t="n">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="H41" s="65" t="n">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="I41" s="58" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="J41" s="57" t="n">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.5 2</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C42" s="31" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="D42" s="67" t="n">
+        <v>0.6039999999999999</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="F42" s="63" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G42" s="135" t="n">
+        <v>0.5969999999999999</v>
+      </c>
+      <c r="H42" s="142" t="n">
+        <v>0.6140000000000001</v>
+      </c>
+      <c r="I42" s="143" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="J42" s="34" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.6 2</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C43" s="144" t="n">
+        <v>0.6130000000000001</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="F43" s="86" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G43" s="96" t="n">
+        <v>0.6289999999999999</v>
+      </c>
+      <c r="H43" s="33" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="I43" s="145" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="J43" s="34" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.7 2</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C44" s="130" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="D44" s="85" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F44" s="99" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="G44" s="85" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="H44" s="55" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="I44" s="34" t="inlineStr"/>
+      <c r="J44" s="34" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.8 2</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C45" s="136" t="n">
+        <v>0.6359999999999999</v>
+      </c>
+      <c r="D45" s="146" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="F45" s="91" t="n">
+        <v>0.6759999999999999</v>
+      </c>
+      <c r="G45" s="140" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="H45" s="34" t="inlineStr"/>
+      <c r="I45" s="34" t="inlineStr"/>
+      <c r="J45" s="34" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>otto_balanced 0.9 2</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="C46" s="147" t="n">
+        <v>0.6709999999999999</v>
+      </c>
+      <c r="D46" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E46" s="9" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="G46" s="64" t="n">
+        <v>0.6760000000000002</v>
+      </c>
+      <c r="H46" s="34" t="inlineStr"/>
+      <c r="I46" s="34" t="inlineStr"/>
+      <c r="J46" s="34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
